--- a/data/income_statement/2digits/size/32_IS_MICRO.xlsx
+++ b/data/income_statement/2digits/size/32_IS_MICRO.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>32-Other manufacturing</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>32-Other manufacturing</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,845 +841,955 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>1354735.31249</v>
+        <v>1458985.76857</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>1361775.18719</v>
+        <v>1493694.36087</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>1272577.59316</v>
+        <v>1417101.07131</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>1299439.87208</v>
+        <v>1425344.8539</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>1023970.30554</v>
+        <v>1149498.89129</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>713621.84254</v>
+        <v>828726.54382</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>550836.46245</v>
+        <v>695526.56829</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>500591.12919</v>
+        <v>650709.36904</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>494863.56835</v>
+        <v>654137.1294300001</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>1325725.55216</v>
+        <v>1589780.87382</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>1395888.42778</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>1690764.47853</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>1897462.698</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>1276711.91879</v>
+        <v>1367286.64152</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>1287919.1798</v>
+        <v>1406144.97883</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>1143873.38784</v>
+        <v>1275995.21356</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>1249324.63175</v>
+        <v>1364209.52474</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>902345.2492199999</v>
+        <v>1016748.08964</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>671027.9737999999</v>
+        <v>776412.8550799999</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>498805.59708</v>
+        <v>631151.91347</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>449278.48439</v>
+        <v>588677.9012800001</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>444065.46068</v>
+        <v>587849.12564</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>1135402.70628</v>
+        <v>1357410.38576</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>1190591.10705</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>1429551.76401</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>1615901.407</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>67734.31319000002</v>
+        <v>79027.78762999999</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>65124.56526</v>
+        <v>75931.27855</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>119213.20477</v>
+        <v>128284.85169</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>42984.2656</v>
+        <v>50213.63572</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>115286.72271</v>
+        <v>123768.44338</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>36822.73146000001</v>
+        <v>44666.66689</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>44925.5654</v>
+        <v>53942.01343</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>44789.05233999999</v>
+        <v>51267.44901</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>44625.14448999999</v>
+        <v>56161.68090000001</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>176634.55491</v>
+        <v>212156.3953</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>187405.83018</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>238212.73414</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>254811.288</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>10289.08051</v>
+        <v>12671.33942</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>8731.442130000001</v>
+        <v>11618.10349</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>9491.000550000001</v>
+        <v>12821.00606</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>7130.97473</v>
+        <v>10921.69344</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>6338.33361</v>
+        <v>8982.358270000001</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>5771.137279999999</v>
+        <v>7647.021849999999</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>7105.29997</v>
+        <v>10432.64139</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>6523.592460000001</v>
+        <v>10764.01875</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>6172.963180000001</v>
+        <v>10126.32289</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>13688.29097</v>
+        <v>20214.09276</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>17891.49055</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>22999.98038</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>26750.003</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>7467.482639999999</v>
+        <v>8851.298409999999</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>5757.34843</v>
+        <v>8844.639349999999</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>4214.98038</v>
+        <v>5106.674859999999</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>3588.04933</v>
+        <v>4453.92453</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>3567.97151</v>
+        <v>4763.60223</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>4209.354520000001</v>
+        <v>5272.772099999999</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>2970.84404</v>
+        <v>4544.60559</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>4977.026800000001</v>
+        <v>6996.21455</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>1929.30851</v>
+        <v>4699.3637</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>10262.33211</v>
+        <v>16736.51286</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>9799.787249999999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>14334.37783</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>29420.132</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>5897.53982</v>
+        <v>7235.92436</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>4546.55415</v>
+        <v>5488.86193</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>3203.83844</v>
+        <v>3962.794549999999</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>2657.05413</v>
+        <v>3390.35143</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>2970.03427</v>
+        <v>4119.63178</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>3793.77487</v>
+        <v>4751.29614</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>2836.62016</v>
+        <v>4015.87824</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>4001.42759</v>
+        <v>5027.28464</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>1723.97458</v>
+        <v>4110.206190000001</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>8786.085399999998</v>
+        <v>14683.79701</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>9191.62939</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>13039.90622</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>25828.888</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
-        <v>1287.35967</v>
+        <v>1306.92903</v>
       </c>
       <c r="D11" s="48" t="n">
-        <v>1059.96658</v>
+        <v>3201.79492</v>
       </c>
       <c r="E11" s="48" t="n">
-        <v>965.0702100000001</v>
+        <v>1066.20357</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>776.2309300000001</v>
+        <v>842.5681</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>482.62508</v>
+        <v>526.85471</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>250.26782</v>
+        <v>340.40019</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>78.85558</v>
+        <v>419.20479</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>941.8817299999999</v>
+        <v>1860.62136</v>
       </c>
       <c r="K11" s="48" t="n">
-        <v>129.84172</v>
+        <v>338.62213</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>1108.09439</v>
+        <v>1521.36195</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>272.95318</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>883.3842099999999</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>2718.832</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
-        <v>282.58315</v>
+        <v>308.44502</v>
       </c>
       <c r="D12" s="48" t="n">
-        <v>150.8277</v>
+        <v>153.9825</v>
       </c>
       <c r="E12" s="48" t="n">
-        <v>46.07173</v>
+        <v>77.67674000000001</v>
       </c>
       <c r="F12" s="48" t="n">
-        <v>154.76427</v>
+        <v>221.005</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>115.31216</v>
+        <v>117.11574</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>165.31183</v>
+        <v>181.07577</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>55.3683</v>
+        <v>109.52256</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>33.71748</v>
+        <v>108.30855</v>
       </c>
       <c r="K12" s="48" t="n">
-        <v>75.49221</v>
+        <v>250.53538</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>368.15232</v>
+        <v>531.3539000000001</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>335.20468</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>411.0874</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>872.412</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>1347267.82985</v>
+        <v>1450134.47016</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>1356017.83876</v>
+        <v>1484849.72152</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>1268362.61278</v>
+        <v>1411994.39645</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>1295851.82275</v>
+        <v>1420890.92937</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>1020402.33403</v>
+        <v>1144735.28906</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>709412.48802</v>
+        <v>823453.7717200001</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>547865.61841</v>
+        <v>690981.9626999999</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>495614.1023900001</v>
+        <v>643713.1544899999</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>492934.25984</v>
+        <v>649437.7657299999</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>1315463.22005</v>
+        <v>1573044.36096</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>1386088.64053</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>1676430.1007</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>1868042.566</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>1167834.57098</v>
+        <v>1245425.44267</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>1181151.25893</v>
+        <v>1277702.98467</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>1083492.5259</v>
+        <v>1189951.30866</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>1149983.75901</v>
+        <v>1242309.16322</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>904537.22413</v>
+        <v>996501.6532299999</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>601739.1433699999</v>
+        <v>687844.5267800001</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>436482.7156100001</v>
+        <v>551180.6338899999</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>392446.00279</v>
+        <v>499070.75369</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>388539.6879</v>
+        <v>500603.43498</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>1062065.64089</v>
+        <v>1247249.15034</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>1112703.933</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>1324980.3871</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>1492699.377</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
-        <v>150603.26997</v>
+        <v>173100.89857</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>135221.32441</v>
+        <v>161613.87265</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>147977.88914</v>
+        <v>172588.12423</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>165650.31462</v>
+        <v>192731.6128</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>133873.92945</v>
+        <v>162472.90167</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>128042.55244</v>
+        <v>160693.34528</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>121549.2557</v>
+        <v>164514.45317</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>108938.50316</v>
+        <v>157475.2124</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>121909.22117</v>
+        <v>171225.59908</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>402492.83542</v>
+        <v>486114.63827</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>453467.09237</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>564587.27299</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>553004.75</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>987770.6246599999</v>
+        <v>1040292.75133</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>1018851.58691</v>
+        <v>1084714.42086</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>905833.30333</v>
+        <v>983441.22534</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>952361.55542</v>
+        <v>1013702.17101</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>738020.7045200001</v>
+        <v>796546.39889</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>442193.29651</v>
+        <v>490972.68976</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>286917.84385</v>
+        <v>352226.8144</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>258759.79685</v>
+        <v>309481.2808000001</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>222840.25157</v>
+        <v>280497.03763</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>613641.7457000001</v>
+        <v>699993.28625</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>597538.1627400001</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>689080.0794200001</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>840498.75</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>28485.74872</v>
+        <v>31044.9215</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>26233.95666</v>
+        <v>30380.39696</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>28830.29774000001</v>
+        <v>33022.93999</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>30758.14521</v>
+        <v>34564.93352</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>31494.20363</v>
+        <v>36260.67979</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>30363.2733</v>
+        <v>34962.96954</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>27047.05054</v>
+        <v>33128.00505000001</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>23840.03709</v>
+        <v>30825.04711</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>42897.50879</v>
+        <v>47829.48063</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>43811.96444999999</v>
+        <v>58024.12583999999</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>53329.07789</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>62355.41603999999</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>89156.189</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
-        <v>974.9276300000001</v>
+        <v>986.87127</v>
       </c>
       <c r="D18" s="48" t="n">
-        <v>844.39095</v>
+        <v>994.2941999999999</v>
       </c>
       <c r="E18" s="48" t="n">
-        <v>851.03569</v>
+        <v>899.0191</v>
       </c>
       <c r="F18" s="48" t="n">
-        <v>1213.74376</v>
+        <v>1310.44589</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>1148.38653</v>
+        <v>1221.67288</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>1140.02112</v>
+        <v>1215.5222</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>968.5655199999999</v>
+        <v>1311.36127</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>907.6656899999999</v>
+        <v>1289.21338</v>
       </c>
       <c r="K18" s="48" t="n">
-        <v>892.70637</v>
+        <v>1051.31764</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>2119.09532</v>
+        <v>3117.09998</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>8369.6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>8957.618649999999</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>10039.688</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>179433.25887</v>
+        <v>204709.02749</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>174866.57983</v>
+        <v>207146.73685</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>184870.08688</v>
+        <v>222043.08779</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>145868.06374</v>
+        <v>178581.76615</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>115865.1099</v>
+        <v>148233.63583</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>107673.34465</v>
+        <v>135609.24494</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>111382.9028</v>
+        <v>139801.32881</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>103168.0996</v>
+        <v>144642.4008</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>104394.57194</v>
+        <v>148834.33075</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>253397.57916</v>
+        <v>325795.21062</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>273384.70753</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>351449.7136</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>375343.189</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>148502.8283</v>
+        <v>170125.69731</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>150360.29125</v>
+        <v>177685.32738</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>156148.92513</v>
+        <v>187672.42119</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>133556.9376</v>
+        <v>162864.58461</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>111952.97548</v>
+        <v>143958.16893</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>108585.27922</v>
+        <v>138355.96917</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>109940.09358</v>
+        <v>150412.64007</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>109529.96345</v>
+        <v>159958.60081</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>110366.26266</v>
+        <v>163366.07886</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>228719.44351</v>
+        <v>297656.48441</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>261468.87655</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>338456.23044</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>348215.947</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
-        <v>446.82996</v>
+        <v>473.3065099999999</v>
       </c>
       <c r="D21" s="48" t="n">
-        <v>250.43081</v>
+        <v>270.28081</v>
       </c>
       <c r="E21" s="48" t="n">
-        <v>372.88465</v>
+        <v>390.5161899999999</v>
       </c>
       <c r="F21" s="48" t="n">
-        <v>447.32648</v>
+        <v>620.2794</v>
       </c>
       <c r="G21" s="48" t="n">
-        <v>631.06003</v>
+        <v>1920.31389</v>
       </c>
       <c r="H21" s="48" t="n">
-        <v>1175.09778</v>
+        <v>1615.16938</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>1293.74197</v>
+        <v>1409.86968</v>
       </c>
       <c r="J21" s="48" t="n">
-        <v>1192.33955</v>
+        <v>1323.61805</v>
       </c>
       <c r="K21" s="48" t="n">
-        <v>1547.54979</v>
+        <v>1659.47712</v>
       </c>
       <c r="L21" s="48" t="n">
-        <v>2062.4658</v>
+        <v>3049.10305</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>2629.68133</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>3038.952330000001</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>3550.537</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>25193.50299</v>
+        <v>28349.34141</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>25417.95871</v>
+        <v>30990.54768</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>26158.6083</v>
+        <v>31259.46354</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>20381.28688</v>
+        <v>24979.54079</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>16995.5034</v>
+        <v>22758.52729</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>15998.0315</v>
+        <v>21144.30553</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>16717.53496</v>
+        <v>22125.65071</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>17468.12121</v>
+        <v>24206.77072</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>16637.29197</v>
+        <v>24172.27384</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>44067.73626999999</v>
+        <v>56393.16403</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>49224.54621</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>60862.46440999999</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>62985.318</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>122862.49535</v>
+        <v>141303.04939</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>124691.90173</v>
+        <v>146424.49889</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>129617.43218</v>
+        <v>156022.44146</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>112728.32424</v>
+        <v>137264.76442</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>94326.41205</v>
+        <v>119279.32775</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>91412.14994</v>
+        <v>115596.49426</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>91928.81664999999</v>
+        <v>126877.11968</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>90869.50268999999</v>
+        <v>134428.21204</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>92181.42090000001</v>
+        <v>137534.3279</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>182589.24144</v>
+        <v>238214.21733</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>209614.64901</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>274554.8137000001</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>281680.092</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>30930.43057</v>
+        <v>34583.33018</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>24506.28858</v>
+        <v>29461.40947</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>28721.16175</v>
+        <v>34370.6666</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>12311.12614</v>
+        <v>15717.18154</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>3912.13442</v>
+        <v>4275.4669</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>-911.9345700000009</v>
+        <v>-2746.724230000001</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>1442.80922</v>
+        <v>-10611.31126</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>-6361.86385</v>
+        <v>-15316.20001</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>-5971.69072</v>
+        <v>-14531.74811</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>24678.13565</v>
+        <v>28138.72621</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>11915.83098</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>12993.48316</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>27127.242</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>12333.0786</v>
+        <v>20338.8775</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>14272.83982</v>
+        <v>23955.74032</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>19443.12768</v>
+        <v>34412.76016000001</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>7260.77267</v>
+        <v>18422.95902</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>8216.006710000001</v>
+        <v>27815.99987</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>6674.96416</v>
+        <v>23045.51053</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>8859.660760000001</v>
+        <v>38791.95065999999</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>8158.19863</v>
+        <v>49983.8363</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>8939.64934</v>
+        <v>29918.47648</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>44929.37453999999</v>
+        <v>112141.87823</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>23538.90844</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>43412.04103</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>117262.869</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
-        <v>12.93947</v>
+        <v>739.94656</v>
       </c>
       <c r="D26" s="48" t="n">
-        <v>0</v>
+        <v>480.58618</v>
       </c>
       <c r="E26" s="48" t="n">
-        <v>2.76265</v>
+        <v>323.1534300000001</v>
       </c>
       <c r="F26" s="48" t="n">
-        <v>15.30895</v>
+        <v>15.46767</v>
       </c>
       <c r="G26" s="48" t="n">
         <v>1.01289</v>
@@ -1790,22 +1801,27 @@
         <v>15.41223</v>
       </c>
       <c r="J26" s="48" t="n">
-        <v>63.75674000000001</v>
+        <v>161.07971</v>
       </c>
       <c r="K26" s="48" t="n">
-        <v>35.518</v>
+        <v>37.84015</v>
       </c>
       <c r="L26" s="48" t="n">
         <v>110.31065</v>
       </c>
       <c r="M26" s="48" t="n">
-        <v>139.25615</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>175.77521</v>
+      </c>
+      <c r="N26" s="48" t="n">
+        <v>56.392</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>0</v>
@@ -1817,7 +1833,7 @@
         <v>0</v>
       </c>
       <c r="F27" s="48" t="n">
-        <v>0</v>
+        <v>1.11815</v>
       </c>
       <c r="G27" s="48" t="n">
         <v>261.61579</v>
@@ -1829,7 +1845,7 @@
         <v>0</v>
       </c>
       <c r="J27" s="48" t="n">
-        <v>0</v>
+        <v>11745.25545</v>
       </c>
       <c r="K27" s="48" t="n">
         <v>0</v>
@@ -1840,65 +1856,75 @@
       <c r="M27" s="48" t="n">
         <v>17.61869</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>148.618</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>421.88555</v>
+        <v>471.44561</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>408.56863</v>
+        <v>965.9708400000001</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>479.88336</v>
+        <v>745.3461799999999</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>412.88256</v>
+        <v>2091.49322</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>476.55174</v>
+        <v>1677.89918</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>336.78453</v>
+        <v>1210.64618</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>495.28039</v>
+        <v>1481.88386</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>308.80999</v>
+        <v>1871.88522</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>338.25066</v>
+        <v>2124.2057</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>1021.85091</v>
+        <v>3026.282110000001</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>1136.76187</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>2519.29942</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>2314.851</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
-        <v>132.21732</v>
+        <v>230.01961</v>
       </c>
       <c r="D29" s="48" t="n">
-        <v>201.22056</v>
+        <v>324.83461</v>
       </c>
       <c r="E29" s="48" t="n">
-        <v>497.12183</v>
+        <v>584.78015</v>
       </c>
       <c r="F29" s="48" t="n">
-        <v>48.49760000000001</v>
+        <v>66.73058999999999</v>
       </c>
       <c r="G29" s="48" t="n">
-        <v>5.61078</v>
+        <v>8.0296</v>
       </c>
       <c r="H29" s="48" t="n">
         <v>0.57556</v>
@@ -1910,43 +1936,48 @@
         <v>16.67044</v>
       </c>
       <c r="K29" s="48" t="n">
-        <v>0.43746</v>
+        <v>72.51706000000001</v>
       </c>
       <c r="L29" s="48" t="n">
-        <v>17.29</v>
+        <v>17.30114</v>
       </c>
       <c r="M29" s="48" t="n">
         <v>3.14936</v>
       </c>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="N29" s="48" t="n">
+        <v>5.339</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
-        <v>124.75044</v>
+        <v>139.75044</v>
       </c>
       <c r="D30" s="48" t="n">
         <v>231.30449</v>
       </c>
       <c r="E30" s="48" t="n">
-        <v>152.76903</v>
+        <v>172.76903</v>
       </c>
       <c r="F30" s="48" t="n">
-        <v>174.0121</v>
+        <v>182.6753</v>
       </c>
       <c r="G30" s="48" t="n">
-        <v>61.42231</v>
+        <v>102.22201</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>0</v>
+        <v>46.94178</v>
       </c>
       <c r="I30" s="48" t="n">
         <v>7.60025</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>386.276</v>
+        <v>396.66578</v>
       </c>
       <c r="K30" s="48" t="n">
         <v>26.22678</v>
@@ -1955,91 +1986,106 @@
         <v>789.47749</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>1.22678</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>17.89525</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>24.952</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
-        <v>32.01862</v>
+        <v>63.76247</v>
       </c>
       <c r="D31" s="48" t="n">
-        <v>17.30062</v>
+        <v>73.71921</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>19.63082</v>
+        <v>22.95374</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>21.07518</v>
+        <v>72.41596</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>74.68085000000001</v>
+        <v>76.46034999999999</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>135.21307</v>
+        <v>137.54072</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>100.41189</v>
+        <v>105.7759</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>117.19737</v>
+        <v>452.16567</v>
       </c>
       <c r="K31" s="48" t="n">
-        <v>118.34058</v>
+        <v>326.28476</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>106.66834</v>
+        <v>249.81416</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>116.23642</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>187.00379</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>73.264</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>2633.799559999999</v>
+        <v>5736.342</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>3027.685089999999</v>
+        <v>6558.7372</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>4604.56312</v>
+        <v>10567.66368</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>1532.54378</v>
+        <v>5016.69245</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>3148.60797</v>
+        <v>16772.02391</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>1787.08392</v>
+        <v>13010.64205</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>3327.56803</v>
+        <v>26486.27023</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>2898.25221</v>
+        <v>22502.42645</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>2488.05357</v>
+        <v>11481.63361</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>17146.17337</v>
+        <v>58370.2003</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>9195.064159999998</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>19680.96858</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>76575.342</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>6.04707</v>
@@ -2069,214 +2115,244 @@
         <v>0</v>
       </c>
       <c r="L33" s="48" t="n">
-        <v>0.14333</v>
+        <v>763.78124</v>
       </c>
       <c r="M33" s="48" t="n">
-        <v>2.98932</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13">
+        <v>4.215979999999999</v>
+      </c>
+      <c r="N33" s="48" t="n">
+        <v>1678.21</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
-        <v>5886.766799999999</v>
+        <v>7280.98001</v>
       </c>
       <c r="D34" s="48" t="n">
-        <v>6991.90948</v>
+        <v>9216.23696</v>
       </c>
       <c r="E34" s="48" t="n">
-        <v>9444.722830000001</v>
+        <v>13321.88913</v>
       </c>
       <c r="F34" s="48" t="n">
-        <v>2605.98639</v>
+        <v>3747.85511</v>
       </c>
       <c r="G34" s="48" t="n">
-        <v>3083.4609</v>
+        <v>5001.964650000001</v>
       </c>
       <c r="H34" s="48" t="n">
-        <v>3002.12157</v>
+        <v>4873.81023</v>
       </c>
       <c r="I34" s="48" t="n">
-        <v>3087.79795</v>
+        <v>5927.08202</v>
       </c>
       <c r="J34" s="48" t="n">
-        <v>3063.64585</v>
+        <v>7298.85619</v>
       </c>
       <c r="K34" s="48" t="n">
-        <v>4121.10953</v>
+        <v>10438.56152</v>
       </c>
       <c r="L34" s="48" t="n">
-        <v>21369.61797</v>
+        <v>38811.90697</v>
       </c>
       <c r="M34" s="48" t="n">
-        <v>8899.68197</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13">
+        <v>15172.5871</v>
+      </c>
+      <c r="N34" s="48" t="n">
+        <v>28705.875</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>3082.65377</v>
+        <v>5670.58373</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>3390.23972</v>
+        <v>6099.7396</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>4215.117669999999</v>
+        <v>8647.648449999999</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>2447.16643</v>
+        <v>7225.21089</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>1094.97453</v>
+        <v>3906.70254</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>1384.87597</v>
+        <v>3737.04447</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>1715.70303</v>
+        <v>4658.03918</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>1225.42616</v>
+        <v>5460.66752</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>1811.71276</v>
+        <v>5411.2069</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>4367.842479999999</v>
+        <v>10002.80417</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>4026.92372</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>5633.52765</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>7680.026</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>10141.36472</v>
+        <v>15342.06906</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>12279.31388</v>
+        <v>19078.57461</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>15420.62554</v>
+        <v>31295.79809</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>4841.46934</v>
+        <v>9317.507379999999</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>5367.51272</v>
+        <v>14425.69862</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>4480.66496</v>
+        <v>15494.22081</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>7291.401220000001</v>
+        <v>23250.18828</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>4913.92144</v>
+        <v>18531.02954</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>6091.35411</v>
+        <v>18028.14702</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>34665.63557</v>
+        <v>99690.84225000002</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>17854.76073</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>35821.07023</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>139201.626</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
-        <v>1253.99224</v>
+        <v>1313.46772</v>
       </c>
       <c r="D37" s="48" t="n">
-        <v>1025.33823</v>
+        <v>1094.63171</v>
       </c>
       <c r="E37" s="48" t="n">
-        <v>772.6988799999999</v>
+        <v>890.1954000000001</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>563.0072700000001</v>
+        <v>662.31367</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>193.35509</v>
+        <v>246.05184</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>248.93603</v>
+        <v>278.46366</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>221.58957</v>
+        <v>254.80237</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>114.57225</v>
+        <v>145.70013</v>
       </c>
       <c r="K37" s="48" t="n">
-        <v>113.24725</v>
+        <v>145.57491</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>331.9842200000001</v>
+        <v>444.70049</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>431.68988</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>560.7183200000001</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>1935.208</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
-        <v>236.14966</v>
+        <v>255.97366</v>
       </c>
       <c r="D38" s="48" t="n">
         <v>259.31176</v>
       </c>
       <c r="E38" s="48" t="n">
-        <v>880.3046899999999</v>
+        <v>976.3986</v>
       </c>
       <c r="F38" s="48" t="n">
-        <v>126.31899</v>
+        <v>155.40196</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>327.88061</v>
+        <v>346.57955</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>110.00614</v>
+        <v>553.87167</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>466.28657</v>
+        <v>565.98844</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>762.3324200000001</v>
+        <v>775.30362</v>
       </c>
       <c r="K38" s="48" t="n">
-        <v>133.25665</v>
+        <v>1360.99013</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>799.78589</v>
+        <v>7591.79201</v>
       </c>
       <c r="M38" s="48" t="n">
         <v>874.13942</v>
       </c>
-    </row>
-    <row r="39" spans="1:13">
+      <c r="N38" s="48" t="n">
+        <v>935.804</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
-        <v>15.248</v>
+        <v>16.89408</v>
       </c>
       <c r="D39" s="48" t="n">
         <v>233.03829</v>
@@ -2291,7 +2367,7 @@
         <v>1.98112</v>
       </c>
       <c r="H39" s="48" t="n">
-        <v>1.7444</v>
+        <v>1.8236</v>
       </c>
       <c r="I39" s="48" t="n">
         <v>14.02549</v>
@@ -2300,7 +2376,7 @@
         <v>0.5942799999999999</v>
       </c>
       <c r="K39" s="48" t="n">
-        <v>33.90973</v>
+        <v>35.18524000000001</v>
       </c>
       <c r="L39" s="48" t="n">
         <v>53.52951</v>
@@ -2308,50 +2384,60 @@
       <c r="M39" s="48" t="n">
         <v>47.82968</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>2452.73116</v>
+        <v>5848.695949999999</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>2718.46638</v>
+        <v>6982.0755</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>3597.95514</v>
+        <v>11815.81643</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>1559.29986</v>
+        <v>4394.085730000001</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>2205.952020000001</v>
+        <v>8810.30661</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>1282.88164</v>
+        <v>9595.04133</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>3724.821779999999</v>
+        <v>17393.79833</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>2386.26542</v>
+        <v>13336.44987</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>2165.66433</v>
+        <v>9511.94584</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>18629.57087</v>
+        <v>66057.19262999999</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>9802.193100000002</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>20137.06057</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>103593.21</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>12.18536</v>
@@ -2386,632 +2472,715 @@
       <c r="M41" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>988.099</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
-        <v>5323.84505</v>
+        <v>6940.56129</v>
       </c>
       <c r="D42" s="48" t="n">
-        <v>7067.23879</v>
+        <v>9465.967209999999</v>
       </c>
       <c r="E42" s="48" t="n">
-        <v>9032.59872</v>
+        <v>16142.98218</v>
       </c>
       <c r="F42" s="48" t="n">
-        <v>1749.82451</v>
+        <v>2808.87473</v>
       </c>
       <c r="G42" s="48" t="n">
-        <v>2248.19227</v>
+        <v>4243.39644</v>
       </c>
       <c r="H42" s="48" t="n">
-        <v>2425.0243</v>
+        <v>4510.43007</v>
       </c>
       <c r="I42" s="48" t="n">
-        <v>2272.31395</v>
+        <v>4242.40455</v>
       </c>
       <c r="J42" s="48" t="n">
-        <v>1371.37025</v>
+        <v>3710.02192</v>
       </c>
       <c r="K42" s="48" t="n">
-        <v>2151.65646</v>
+        <v>4913.68349</v>
       </c>
       <c r="L42" s="48" t="n">
-        <v>14141.58375</v>
+        <v>23685.49365</v>
       </c>
       <c r="M42" s="48" t="n">
-        <v>5650.768889999999</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13">
+        <v>10766.01966</v>
+      </c>
+      <c r="N42" s="48" t="n">
+        <v>29634.119</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>847.21325</v>
+        <v>954.2910000000001</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>974.0922099999999</v>
+        <v>1041.72192</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>1109.34782</v>
+        <v>1442.68519</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>842.8254900000001</v>
+        <v>1296.63807</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>390.00237</v>
+        <v>777.23382</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>411.08044</v>
+        <v>553.59847</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>592.3638599999999</v>
+        <v>779.1691</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>278.7868199999999</v>
+        <v>562.9597199999999</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>1461.87023</v>
+        <v>2029.01795</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>709.0379999999999</v>
+        <v>1857.99063</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>1048.13976</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>3435.30258</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>2115.186</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>11498.76777</v>
+        <v>14271.16188</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>9190.200060000001</v>
+        <v>13129.71264</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>9870.158190000002</v>
+        <v>18009.74432</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>7079.49997</v>
+        <v>11902.91891</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>5575.28107</v>
+        <v>10177.29996</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>3595.88031</v>
+        <v>8781.527830000001</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>4370.619019999999</v>
+        <v>12029.56361</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>4621.11015</v>
+        <v>11273.62989</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>3381.1821</v>
+        <v>10734.36613</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>18191.28552</v>
+        <v>32657.77818</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>18853.4546</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>35158.96419</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>35156.879</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>11145.60888</v>
+        <v>13758.05849</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>8844.764720000001</v>
+        <v>12748.20438</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>9575.613760000002</v>
+        <v>13646.21808</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>6877.318060000001</v>
+        <v>11573.83007</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>5371.14658</v>
+        <v>9789.231730000001</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>3349.10079</v>
+        <v>8186.284269999999</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>4249.23937</v>
+        <v>11435.54562</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>4467.55765</v>
+        <v>10870.90635</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>3287.71043</v>
+        <v>10074.7313</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>17320.85533</v>
+        <v>31406.66727</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>18462.19631</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>33120.27800000001</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>33498.016</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
-        <v>353.15889</v>
+        <v>513.10339</v>
       </c>
       <c r="D46" s="48" t="n">
-        <v>345.4353400000001</v>
+        <v>381.50826</v>
       </c>
       <c r="E46" s="48" t="n">
-        <v>294.54443</v>
+        <v>4363.52624</v>
       </c>
       <c r="F46" s="48" t="n">
-        <v>202.18191</v>
+        <v>329.08884</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>204.13449</v>
+        <v>388.06823</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>246.77952</v>
+        <v>595.2435599999999</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>121.37965</v>
+        <v>594.0179899999999</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>153.5525</v>
+        <v>402.72354</v>
       </c>
       <c r="K46" s="48" t="n">
-        <v>93.47167</v>
+        <v>659.63483</v>
       </c>
       <c r="L46" s="48" t="n">
-        <v>870.4301900000002</v>
+        <v>1251.11091</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>391.25829</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>2038.68619</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>1658.863</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>21623.37668</v>
+        <v>25308.97674</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>17309.61446</v>
+        <v>21208.86254</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>22873.5057</v>
+        <v>19477.88435</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>7650.9295</v>
+        <v>12919.71427</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>1185.34734</v>
+        <v>7488.468190000001</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>-2313.51568</v>
+        <v>-3976.962340000001</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>-1359.550259999999</v>
+        <v>-7099.11249</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>-7738.696810000002</v>
+        <v>4862.976859999998</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>-6504.577590000001</v>
+        <v>-13375.78478</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>16750.5891</v>
+        <v>7931.984010000002</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>-1253.475910000002</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>-14574.51023</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>-29968.394</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>3377.568319999999</v>
+        <v>4927.536609999999</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>5520.83777</v>
+        <v>7890.59781</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>4972.239549999999</v>
+        <v>16872.73876</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>3826.50543</v>
+        <v>9409.819899999999</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>3010.18563</v>
+        <v>5263.27366</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>2821.97916</v>
+        <v>5746.48694</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>3088.13457</v>
+        <v>9222.106250000001</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>3017.69481</v>
+        <v>5544.704290000001</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>5301.67451</v>
+        <v>11536.28625</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>8860.845299999999</v>
+        <v>20458.3624</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>12156.11202</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>33121.55054</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>17573.253</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
         <v>13.62097</v>
       </c>
       <c r="D49" s="48" t="n">
-        <v>172.76619</v>
+        <v>184.79714</v>
       </c>
       <c r="E49" s="48" t="n">
-        <v>19.83222</v>
+        <v>24.38718</v>
       </c>
       <c r="F49" s="48" t="n">
-        <v>157.62842</v>
+        <v>157.65232</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>76.22394</v>
+        <v>97.95183999999999</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>2.11612</v>
+        <v>5.46526</v>
       </c>
       <c r="I49" s="48" t="n">
         <v>116.70672</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>38.69593</v>
+        <v>38.69656000000001</v>
       </c>
       <c r="K49" s="48" t="n">
-        <v>53.64744</v>
+        <v>53.64745</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>13.1134</v>
+        <v>23.75818</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>21.16764</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>179.64069</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>19.867</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>3363.947349999999</v>
+        <v>4913.91564</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>5348.07158</v>
+        <v>7705.80067</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>4952.40733</v>
+        <v>16848.35158</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>3668.877010000001</v>
+        <v>9252.167579999999</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>2933.96169</v>
+        <v>5165.32182</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>2819.86304</v>
+        <v>5741.02168</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>2971.42785</v>
+        <v>9105.399529999999</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>2978.998880000001</v>
+        <v>5506.00773</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>5248.02707</v>
+        <v>11482.6388</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>8847.731900000001</v>
+        <v>20434.60422</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>12134.94438</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>32941.90985</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>17553.386</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>4929.36861</v>
+        <v>5857.51298</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>8252.004809999999</v>
+        <v>10047.04119</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>44142.45423999999</v>
+        <v>55686.15592</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>7720.079409999999</v>
+        <v>10382.5789</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>5458.73229</v>
+        <v>9899.363869999999</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>9942.37148</v>
+        <v>12831.71403</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>4697.610369999999</v>
+        <v>9394.83553</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>13935.29189</v>
+        <v>20016.64115</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>7814.25738</v>
+        <v>10927.11765</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>17947.76176</v>
+        <v>32180.7983</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>10530.7097</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>21860.93458</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>23012.501</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
-        <v>950.28325</v>
+        <v>1125.60244</v>
       </c>
       <c r="D52" s="48" t="n">
-        <v>741.23392</v>
+        <v>982.41403</v>
       </c>
       <c r="E52" s="48" t="n">
-        <v>1110.5626</v>
+        <v>1255.99956</v>
       </c>
       <c r="F52" s="48" t="n">
         <v>1046.54912</v>
       </c>
       <c r="G52" s="48" t="n">
-        <v>1117.5234</v>
+        <v>1250.87334</v>
       </c>
       <c r="H52" s="48" t="n">
-        <v>1223.8213</v>
+        <v>1241.87959</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>1495.86087</v>
+        <v>1692.31775</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>1797.28359</v>
+        <v>1988.50724</v>
       </c>
       <c r="K52" s="48" t="n">
-        <v>1519.15489</v>
+        <v>1661.65773</v>
       </c>
       <c r="L52" s="48" t="n">
-        <v>1470.12421</v>
+        <v>1563.72093</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>2396.631789999999</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>4070.66929</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>3738.284</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>351.36713</v>
+        <v>356.65436</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>428.77077</v>
+        <v>469.33464</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>702.51926</v>
+        <v>731.87863</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>543.91727</v>
+        <v>896.00445</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>703.9808099999999</v>
+        <v>1102.14987</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>776.30495</v>
+        <v>813.1104</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>51.48018</v>
+        <v>272.80433</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>453.19693</v>
+        <v>545.14328</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>131.12374</v>
+        <v>135.73093</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>1039.35489</v>
+        <v>1473.70716</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>1281.94435</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>1404.60558</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>1924.33</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>3627.71823</v>
+        <v>4375.256179999999</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>7082.00012</v>
+        <v>8595.292519999999</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>42329.37238</v>
+        <v>53698.27773</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>6129.61302</v>
+        <v>8440.02533</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>3637.228079999999</v>
+        <v>7546.34066</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>7942.24523</v>
+        <v>10776.72404</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>3150.26932</v>
+        <v>7429.713449999999</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>11684.81137</v>
+        <v>17482.99063</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>6163.97875</v>
+        <v>9129.72899</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>15438.28266</v>
+        <v>29143.37021</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>6852.13356</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>16385.65971</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>17349.887</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>20071.57639</v>
+        <v>24379.00037</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>14578.44742</v>
+        <v>19052.41916</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>-16296.70899</v>
+        <v>-19335.53281</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>3757.35552</v>
+        <v>11946.95527</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>-1263.199319999999</v>
+        <v>2852.37798</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>-9433.907999999999</v>
+        <v>-11062.18943</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>-2969.02606</v>
+        <v>-7271.841770000001</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>-18656.29389</v>
+        <v>-9608.959999999999</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>-9017.160459999997</v>
+        <v>-12766.61618</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>7663.672640000001</v>
+        <v>-3790.451890000001</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>371.9264099999992</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>-3313.894270000001</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>-35407.642</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>6674.9019</v>
+        <v>7812.874119999999</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>6576.26856</v>
+        <v>8197.072900000001</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>7308.57131</v>
+        <v>9203.701279999999</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>5592.66925</v>
+        <v>7845.184039999999</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>4037.06937</v>
+        <v>6548.72624</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>4026.05626</v>
+        <v>5866.980890000001</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>3787.21981</v>
+        <v>6924.85848</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>3422.38294</v>
+        <v>7099.970399999999</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>3342.3741</v>
+        <v>5446.393929999999</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>8546.2035</v>
+        <v>12280.76887</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>9690.082759999999</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>12634.43317</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>17235.574</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>13396.67449</v>
+        <v>16566.12625</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>8002.17886</v>
+        <v>10855.34626</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>-23605.2803</v>
+        <v>-28539.23409</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>-1835.31373</v>
+        <v>4101.771229999999</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>-5300.26869</v>
+        <v>-3696.34826</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>-13459.96426</v>
+        <v>-16929.17032</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>-6756.24587</v>
+        <v>-14196.70025</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>-22078.67683</v>
+        <v>-16708.9304</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>-12359.53456</v>
+        <v>-18213.01011</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>-882.5308600000008</v>
+        <v>-16071.22076</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>-9318.156349999999</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>-15948.32744</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>-52643.216</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
-        <v>4222</v>
+        <v>4464</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>3974</v>
+        <v>4286</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>3743</v>
+        <v>4092</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>3183</v>
+        <v>3509</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>2450</v>
+        <v>2771</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>2149</v>
+        <v>2441</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>2030</v>
+        <v>2391</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>1888</v>
+        <v>2309</v>
       </c>
       <c r="K59" s="35" t="n">
-        <v>1861</v>
+        <v>2282</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>2116</v>
+        <v>2673</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>2190</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>2817</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>3263</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>